--- a/pred_ohlcv/54_21/2020-01-21 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 PLY ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>6243556.798005437</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5087100.046505437</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5082186.046505437</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5240576.438383581</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5665724.421475841</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5970045.21037584</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5941054.108675839</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5941054.108675839</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5889475.144975839</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6128620.47917584</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>6028620.47917584</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5928620.47917584</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5576389.19137584</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5192299.78057584</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5445792.846275841</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5894054.748775841</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5885174.748775841</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6743915.254775841</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>6686398.950875841</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>6687920.183975841</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>6530204.832675841</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>6521324.832675841</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6348736.83577584</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6526600.43567584</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>6553061.28997584</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6791151.68887584</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6791151.68887584</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6791151.68887584</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6791151.68887584</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6860630.739975841</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6860630.739975841</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6694594.996575841</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4279299.417975839</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5434564.120175839</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5510564.120175839</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5510564.120175839</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5510964.120175839</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5510448.218575839</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>5511945.293975839</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>5511817.293975839</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>5034902.978201131</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>5029252.978201131</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>5128050.978201131</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6422207.383301132</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6375274.818901133</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>6534678.164401133</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>6269642.677001132</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>6269642.677501132</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>6457059.236049991</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>6416781.607549991</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 PLY ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>5479068.40417584</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5422657.08317584</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5366255.40437584</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5366022.90597584</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5365893.13257584</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5331468.733075839</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5453056.699185596</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5638625.41297584</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5652831.838275841</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5677571.88547584</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5665724.421475841</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5871612.22267584</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5979946.51607584</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5970045.21037584</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5941054.108675839</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5941054.108675839</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5890602.434375839</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5884602.434375839</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5889475.144975839</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6111700.137975839</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5928620.47917584</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5554175.683175839</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5555175.683175839</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5554925.55797584</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5553678.46577584</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5192299.78057584</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5445792.846275841</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5894054.748775841</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5885174.748775841</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>6743915.254775841</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>6686398.950875841</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>6348736.83577584</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6791151.68887584</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6790851.68887584</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4272285.31957584</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4279815.31957584</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4279299.417975839</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>7338152.940475839</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5510764.120175839</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5510964.120175839</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>5510448.218575839</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>5511817.293975839</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>5511689.293975839</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>5509186.591275839</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>5385129.708301132</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6422207.383301132</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6375274.818901133</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>6534678.164401133</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>6555239.609801132</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
